--- a/SleepLabs/Data/magnitudeDistribution.xlsx
+++ b/SleepLabs/Data/magnitudeDistribution.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,13 +447,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>(0.5, 0.6]</t>
+          <t>(0.5, 1.0]</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -463,7 +463,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>(0.6, 0.7]</t>
+          <t>(1.0, 1.5]</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -473,7 +473,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>(0.7, 0.8]</t>
+          <t>(1.5, 2.0]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -483,17 +483,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>(0.8, 0.9]</t>
+          <t>(2.0, 2.5]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>(0.9, 0.93]</t>
+          <t>(2.5, 3.0]</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -503,7 +503,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>(0.93, 0.94]</t>
+          <t>(3.0, 3.5]</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -513,111 +513,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>(0.94, 0.96]</t>
+          <t>(3.5, inf]</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>(0.96, 0.97]</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>(0.97, 1.0]</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>(1.0, 1.2]</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>(1.2, 1.23]</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>15871</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>(1.23, 1.26]</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>92037</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>(1.26, 1.29]</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>(1.29, 1.3]</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>(1.3, 1.4]</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>(1.4, 1.5]</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>(1.5, inf]</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
